--- a/input.xlsx
+++ b/input.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="30" windowWidth="24930" windowHeight="10920"/>
+    <workbookView xWindow="320" yWindow="30" windowWidth="19420" windowHeight="10920" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ref_data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="ref" sheetId="2" r:id="rId2"/>
+    <sheet name="ref_H2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Nads</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -99,6 +99,26 @@
   </si>
   <si>
     <t>0.00000001, 100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +126,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +201,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -226,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,10 +296,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -275,12 +332,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1962150" cy="2165350"/>
+    <xdr:ext cx="1962150" cy="869950"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -288,8 +345,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8496300" y="577850"/>
-          <a:ext cx="1962150" cy="2165350"/>
+          <a:off x="8286750" y="755650"/>
+          <a:ext cx="1962150" cy="869950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -317,102 +374,66 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1.E_slab,TS</a:t>
+            <a:t>1.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>和</a:t>
+            <a:t>空单元格默认值为</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ZPE</a:t>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>只需要填写第一行；</a:t>
+            <a:t>能量单位均为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>eV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>单位为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>eV/K</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>；</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>空单元格默认值为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>3.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>能量单位均为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>eV</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>S</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>单位为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>eV/K</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>；</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> Nads </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>可以存在相同值</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>依赖：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>pandas</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>xlwt,xlrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>matplotlib</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>numpy</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -425,12 +446,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2135328" cy="986937"/>
+    <xdr:ext cx="3003550" cy="1765300"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -438,8 +459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6540500" y="1568450"/>
-          <a:ext cx="2135328" cy="986937"/>
+          <a:off x="6426200" y="920750"/>
+          <a:ext cx="3003550" cy="1765300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -460,8 +481,8 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -491,7 +512,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1.</a:t>
+            <a:t>1. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -502,11 +523,18 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>每一列都不允许空值</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t> </a:t>
+            <a:t>能量单位 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>eV</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
@@ -532,6 +560,28 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>默认的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -660,7 +710,40 @@
             <a:rPr lang="en-US" altLang="zh-CN"/>
             <a:t>bar</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>；温度默认值为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>298.15K</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>；其余列的默认值为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4. u</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、温度和压力可以为范围，使用（逗号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>空格）分开</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -954,125 +1037,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" style="8" customWidth="1"/>
+    <col min="1" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="10.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.90625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="16.5">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>-361.67589465999998</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>-14.666047846</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.204550072</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>-378.58912755</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.15063934850000002</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="C3" s="1">
+        <v>-361.67589465999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-14.666047846</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.204550072</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
         <v>-412.2537347</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="I3" s="1">
+        <v>0.15063934850000002</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="C4" s="1">
+        <v>-361.67589465999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-14.666047846</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.204550072</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1">
         <v>-445.91793045999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="I4" s="1">
+        <v>0.15063934850000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
         <v>7</v>
       </c>
-      <c r="G5" s="1">
+      <c r="C5" s="1">
+        <v>-361.67589465999998</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-14.666047846</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.204550072</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1">
         <v>-478.90673414999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="I5" s="1">
+        <v>0.15063934850000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
         <v>9</v>
       </c>
-      <c r="G6" s="1">
+      <c r="C6" s="1">
+        <v>-361.67589465999998</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-14.666047846</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.204550072</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1">
         <v>-511.87998097000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="I6" s="1">
+        <v>0.15063934850000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
         <v>11</v>
       </c>
-      <c r="G7" s="1">
+      <c r="C7" s="1">
+        <v>-361.67589465999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-14.666047846</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.204550072</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1">
         <v>-541.82031601000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
+      <c r="I7" s="1">
+        <v>0.15063934850000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
         <v>13</v>
       </c>
-      <c r="G8" s="1">
+      <c r="C8" s="1">
+        <v>-361.67589465999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-14.666047846</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.204550072</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1">
         <v>-572.68982028999994</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.15063934850000002</v>
       </c>
     </row>
   </sheetData>
@@ -1085,115 +1279,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="11" customFormat="1">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4">
         <v>-6.7602523000000003</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>0.27</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="15">
         <f>130.68/1000/96.4853</f>
         <v>1.354403209608096E-3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4">
         <v>-14.225159</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="15">
         <f>188.835/1000/96.4853</f>
         <v>1.9571375121391552E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1">
+      <c r="D4" s="4"/>
+      <c r="E4" s="15">
         <f>205.152/1000/96.4853</f>
         <v>2.1262513564242426E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>-14.666047846</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.204550072</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="15">
         <f>197.66/1000/96.4853</f>
         <v>2.0486022223074399E-3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="15">
         <f>213.785/1000/96.4853</f>
         <v>2.2157261261560052E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="15">
         <f>5.74/1000/96.4853</f>
         <v>5.9490927633535891E-5</v>
       </c>
@@ -1201,18 +1406,33 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="30" windowWidth="19420" windowHeight="10920" activeTab="2"/>
+    <workbookView xWindow="320" yWindow="30" windowWidth="19420" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="ref" sheetId="2" r:id="rId2"/>
-    <sheet name="ref_H2" sheetId="3" r:id="rId3"/>
+    <sheet name="ref_CO" sheetId="6" r:id="rId3"/>
+    <sheet name="ref_H2O" sheetId="5" r:id="rId4"/>
+    <sheet name="ref_H2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Nads</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -26,10 +28,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>E_ads</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>E_total</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -38,10 +36,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ZPE_ads</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ZPE_total</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -119,6 +113,18 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +136,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +225,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -268,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +329,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -332,7 +358,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -448,7 +474,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3003550" cy="1765300"/>
@@ -1037,27 +1063,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="10.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="16.5">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1066,28 +1090,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1095,26 +1113,20 @@
       <c r="C2" s="1">
         <v>-361.67589465999998</v>
       </c>
-      <c r="E2" s="1">
-        <v>-14.666047846</v>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="1">
-        <v>0.204550072</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1">
         <v>-378.58912755</v>
       </c>
-      <c r="I2" s="1">
+      <c r="G2" s="1">
         <v>0.15063934850000002</v>
       </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1122,26 +1134,20 @@
       <c r="C3" s="1">
         <v>-361.67589465999998</v>
       </c>
-      <c r="E3" s="1">
-        <v>-14.666047846</v>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>0.204550072</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1">
         <v>-412.2537347</v>
       </c>
-      <c r="I3" s="1">
+      <c r="G3" s="1">
         <v>0.15063934850000002</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -1149,25 +1155,19 @@
       <c r="C4" s="1">
         <v>-361.67589465999998</v>
       </c>
-      <c r="E4" s="1">
-        <v>-14.666047846</v>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>0.204550072</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1">
         <v>-445.91793045999998</v>
       </c>
-      <c r="I4" s="1">
+      <c r="G4" s="1">
         <v>0.15063934850000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
@@ -1175,25 +1175,19 @@
       <c r="C5" s="1">
         <v>-361.67589465999998</v>
       </c>
-      <c r="E5" s="1">
-        <v>-14.666047846</v>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="1">
-        <v>0.204550072</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1">
         <v>-478.90673414999998</v>
       </c>
-      <c r="I5" s="1">
+      <c r="G5" s="1">
         <v>0.15063934850000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>9</v>
@@ -1201,25 +1195,19 @@
       <c r="C6" s="1">
         <v>-361.67589465999998</v>
       </c>
-      <c r="E6" s="1">
-        <v>-14.666047846</v>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="1">
-        <v>0.204550072</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1">
         <v>-511.87998097000002</v>
       </c>
-      <c r="I6" s="1">
+      <c r="G6" s="1">
         <v>0.15063934850000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -1227,25 +1215,19 @@
       <c r="C7" s="1">
         <v>-361.67589465999998</v>
       </c>
-      <c r="E7" s="1">
-        <v>-14.666047846</v>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F7" s="1">
-        <v>0.204550072</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1">
         <v>-541.82031601000006</v>
       </c>
-      <c r="I7" s="1">
+      <c r="G7" s="1">
         <v>0.15063934850000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>13</v>
@@ -1253,21 +1235,36 @@
       <c r="C8" s="1">
         <v>-361.67589465999998</v>
       </c>
-      <c r="E8" s="1">
-        <v>-14.666047846</v>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="1">
-        <v>0.204550072</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1">
         <v>-572.68982028999994</v>
       </c>
-      <c r="I8" s="1">
+      <c r="G8" s="1">
         <v>0.15063934850000002</v>
       </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-361.9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-412.2537347</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.15063934850000002</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1279,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1297,108 +1294,144 @@
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="19" customFormat="1">
+      <c r="A2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" s="19" customFormat="1">
+      <c r="A3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" s="19" customFormat="1">
+      <c r="A4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="B5" s="4">
         <v>-6.7602523000000003</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
         <v>0.27</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E5" s="15">
         <f>130.68/1000/96.4853</f>
         <v>1.354403209608096E-3</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G5" s="9">
         <v>300</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
         <v>-14.225159</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E6" s="15">
         <f>188.835/1000/96.4853</f>
         <v>1.9571375121391552E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="15">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="15">
         <f>205.152/1000/96.4853</f>
         <v>2.1262513564242426E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
         <v>-14.666047846</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D8" s="1">
         <v>0.204550072</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E8" s="15">
         <f>197.66/1000/96.4853</f>
         <v>2.0486022223074399E-3</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="F8" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="15">
         <f>213.785/1000/96.4853</f>
         <v>2.2157261261560052E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="15">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="15">
         <f>5.74/1000/96.4853</f>
         <v>5.9490927633535891E-5</v>
       </c>
@@ -1415,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1423,13 +1456,67 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000001, 10</t>
   </si>
   <si>
     <t xml:space="preserve">CO2</t>
@@ -454,9 +457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>545400</xdr:colOff>
+      <xdr:colOff>545040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -466,7 +469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8056800" y="755280"/>
-          <a:ext cx="2610360" cy="1955160"/>
+          <a:ext cx="2610000" cy="1954800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -674,9 +677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>170640</xdr:colOff>
+      <xdr:colOff>170280</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -686,7 +689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7385400" y="1454040"/>
-          <a:ext cx="3002760" cy="2546280"/>
+          <a:ext cx="3002400" cy="2545920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,7 +1284,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1417,13 +1420,13 @@
         <f aca="false">197.66/1000/96.4853</f>
         <v>0.00204860222230744</v>
       </c>
-      <c r="F8" s="8" t="n">
-        <v>1E-008</v>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="n">
         <f aca="false">213.785/1000/96.4853</f>
@@ -1432,7 +1435,7 @@
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="7" t="n">
         <f aca="false">5.74/1000/96.4853</f>
@@ -1469,7 +1472,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>12</v>
@@ -1595,7 +1598,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>12</v>
@@ -1721,7 +1724,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>12</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -32,28 +32,31 @@
     <t xml:space="preserve">Nads</t>
   </si>
   <si>
-    <t xml:space="preserve">E_slab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZPE_slab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula_ads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZPE_total</t>
+    <t xml:space="preserve">E_Slab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZPE_Slab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZPE_Total</t>
   </si>
   <si>
     <t xml:space="preserve">CO</t>
   </si>
   <si>
+    <t xml:space="preserve">Total-Slab-Nads*CO</t>
+  </si>
+  <si>
     <t xml:space="preserve">H</t>
   </si>
   <si>
-    <t xml:space="preserve">1/2*H2</t>
+    <t xml:space="preserve">Total-Slab-1/2*H2*Nads</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -80,7 +83,7 @@
     <t xml:space="preserve">H2</t>
   </si>
   <si>
-    <t xml:space="preserve">300, 600</t>
+    <t xml:space="preserve">100, 800</t>
   </si>
   <si>
     <t xml:space="preserve">H2O_g</t>
@@ -89,7 +92,7 @@
     <t xml:space="preserve">O2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.001, 10</t>
+    <t xml:space="preserve">0.0001, 10</t>
   </si>
   <si>
     <t xml:space="preserve">CO2</t>
@@ -112,7 +115,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -134,13 +137,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -200,6 +196,11 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -233,19 +234,20 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -264,7 +266,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,10 +290,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -300,47 +299,47 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,11 +347,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,24 +359,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -415,7 +413,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -449,13 +447,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>211680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>544680</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:colOff>543240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -464,14 +462,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8058960" y="762840"/>
-          <a:ext cx="2611080" cy="1363680"/>
+          <a:off x="8669160" y="755640"/>
+          <a:ext cx="2610000" cy="1169280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:round/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -699,9 +698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>259920</xdr:colOff>
+      <xdr:colOff>258480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -710,14 +709,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7078680" y="303120"/>
-          <a:ext cx="3145320" cy="2545920"/>
+          <a:off x="7075440" y="303120"/>
+          <a:ext cx="3144240" cy="2544480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:round/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1222,17 +1222,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.91"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1274,14 +1274,14 @@
         <v>-361.67589466</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>-378.58912755</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1292,14 +1292,14 @@
         <v>-361.67589466</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>-412.2537347</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1310,13 +1310,13 @@
         <v>-361.67589466</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>-445.91793046</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1327,13 +1327,13 @@
         <v>-361.67589466</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>-478.90673415</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1344,13 +1344,13 @@
         <v>-361.67589466</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>-511.87998097</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1361,13 +1361,13 @@
         <v>-361.67589466</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>-541.82031601</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1378,15 +1378,15 @@
         <v>-361.67589466</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>-572.68982029</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3</v>
@@ -1395,7 +1395,7 @@
         <v>-361.9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">C9-6.9*1.5</f>
@@ -1403,6 +1403,8 @@
       </c>
       <c r="H9" s="7"/>
     </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1423,7 +1425,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1442,30 +1444,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" s="15" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="13" t="n">
         <v>-6.7602523</v>
@@ -1479,16 +1481,16 @@
         <v>0.0013544032096081</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" s="15" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="13" t="n">
         <v>-14.225159</v>
@@ -1505,9 +1507,9 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" s="15" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1520,7 +1522,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1535,14 +1537,14 @@
         <v>0.00204860222230744</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="8" t="n">
         <f aca="false">213.785/1000/96.4853</f>
@@ -1551,7 +1553,7 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8" t="n">
         <f aca="false">5.74/1000/96.4853</f>
@@ -1591,13 +1593,13 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,13 +1730,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,13 +1867,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
